--- a/examples/javascript/LINQ/test/auto/TestSelect/TestSelectMath/PerformanceResourceTimingData2.xlsx
+++ b/examples/javascript/LINQ/test/auto/TestSelect/TestSelectMath/PerformanceResourceTimingData2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="400"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>connectStart as long</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>EventTime as DateTime</t>
+  </si>
+  <si>
+    <t>z as xml</t>
   </si>
 </sst>
 </file>
@@ -156,6 +159,104 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="1026" name="shapetype_75" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="G0" fmla="+- 2700 0 0"/>
+            <a:gd name="G1" fmla="+- 21600 0 G0"/>
+            <a:gd name="G2" fmla="+- 21600 0 G0"/>
+            <a:gd name="T0" fmla="*/ G0 w 21600"/>
+            <a:gd name="T1" fmla="*/ G0 h 21600"/>
+            <a:gd name="T2" fmla="*/ G1 w 21600"/>
+            <a:gd name="T3" fmla="*/ G2 h 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="r" y="vc"/>
+            </a:cxn>
+            <a:cxn ang="5400000">
+              <a:pos x="hc" y="b"/>
+            </a:cxn>
+            <a:cxn ang="10800000">
+              <a:pos x="l" y="vc"/>
+            </a:cxn>
+            <a:cxn ang="16200000">
+              <a:pos x="hc" y="t"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T0" t="T1" r="T2" b="T3"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="21600"/>
+              </a:lnTo>
+              <a:close/>
+              <a:moveTo>
+                <a:pt x="2700" y="2700"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2700" y="18900"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="18900" y="18900"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="18900" y="2700"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="shapetype_75" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -528,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +650,7 @@
     <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,6 +680,9 @@
       </c>
       <c r="J1" t="s">
         <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
